--- a/wti模型3.0/eta/WTI连1-连4月差_月度数据.xlsx
+++ b/wti模型3.0/eta/WTI连1-连4月差_月度数据.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.6544</v>
+        <v>1.5497</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7317</v>
+        <v>0.76</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9087</v>
+        <v>0.8297</v>
       </c>
     </row>
     <row r="5">
